--- a/biology/Botanique/Jean_Thore/Jean_Thore.xlsx
+++ b/biology/Botanique/Jean_Thore/Jean_Thore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Thore est un  médecin et un botaniste français, né le 13 octobre 1762 à Montaut, département du Gers, et mort le 27 avril 1823 à Dax.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa famille, d’origine scandinave, s’installe en Gascogne au XVIe siècle. Il étudie au collège jésuite d’Auch avant de partir, après l’obtention d’un baccalauréat d’arts, à Bordeaux pour y étudier la médecine. Outre les cours de médecine, il suit l’enseignement du botaniste François-de-Paule Latapie (1739-1823).
 Il obtient son baccalauréat de médecine en 1786 et se marie en 1788 avec Françoise-Amélie Goudicheau. En 1792, il obtient sa licence de médecine, année où il part s’installer à la Teste-de-Buch où il rencontre Jean-Baptiste Bory de Saint-Vincent (1778-1846) qui s’y est réfugié pour se protéger des fureurs révolutionnaires.
@@ -521,7 +535,7 @@
 Son cercle de correspondants n’est pas limitée à la région de Dax, il correspond également avec René Desfontaines (1750-1831), Christiaan Hendrik Persoon (1755-1837), Jean Louis Auguste Loiseleur-Deslongchamps (1774-1849), Augustin Pyrame de Candolle (1778-1841), Jacques Philippe Raymond Draparnaud (1772-1804), Franz Carl Mertens (1764-1831), Johann Jakob Roemer (1763-1819)...
 Esprit indépendant et républicain, il n’hésite pas à faire part de son opposition aux aspects non-démocratiques des régimes en place. Ceci lui vaut, durant le règne de Louis XVIII, de nombreuses tracasseries dont une impossibilité de donner des leçons privées à partir de 1815, source principale de ses revenus. En 1819, il est contraint de quitter la ville de Dax. Il s’installe alors à Saint-Vincent-de-Xaintes. Tous ses ennuis administratifs, et la longue guerre qu’il doit mener contre l’administration, le contraignent à restreindre son activité scientifique.
 Il est inhumé au Cimetière Saint-Vincent à Dax.
-Il dresse un herbier, conservé au musée de Borda et numérisé par les archives départementales des Landes[1].
+Il dresse un herbier, conservé au musée de Borda et numérisé par les archives départementales des Landes.
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ses principales publications sont 
 Essai d'une chloris du département des Landes, Dax, imprimerie de Seize, 1803 ;
